--- a/GradesGuru/Data/Corners.xlsx
+++ b/GradesGuru/Data/Corners.xlsx
@@ -87,9 +87,6 @@
     <t>Poor</t>
   </si>
   <si>
-    <t>Table 1</t>
-  </si>
-  <si>
     <t>Pristine</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>Mint+</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
   <si>
     <t>Is a card that at first glance appears to be Gem Mint 10 upon close inspection it may have a tiny flaw(s) that keeps in from grading GEM MT 10.</t>
@@ -325,7 +325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -346,42 +346,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -395,26 +395,26 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,38 +532,38 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -572,28 +572,25 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -611,9 +608,6 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -626,7 +620,7 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -635,7 +629,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -644,7 +638,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -664,8 +658,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffdbdbdb"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -868,12 +862,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -906,10 +900,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1157,12 +1151,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1477,10 +1471,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Arial"/>
-            <a:ea typeface="Arial"/>
-            <a:cs typeface="Arial"/>
-            <a:sym typeface="Arial"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -15810,11 +15804,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -15822,175 +15814,163 @@
     <col min="6" max="16384" width="16.3516" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" ht="13" customHeight="1">
       <c r="A1" t="s" s="13">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="14">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" ht="13" customHeight="1">
+      <c r="A2" s="17">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="18">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="13" customHeight="1">
-      <c r="A2" t="s" s="14">
-        <v>0</v>
+      <c r="C2" t="s" s="19">
+        <v>25</v>
       </c>
-      <c r="B2" t="s" s="15">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="13" customHeight="1">
+      <c r="A3" s="17">
+        <v>9.5</v>
+      </c>
+      <c r="B3" t="s" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s" s="19">
+        <v>26</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="13" customHeight="1">
+      <c r="A4" s="17">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="18">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s" s="19">
+        <v>27</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="13" customHeight="1">
+      <c r="A5" s="17">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="18">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s" s="19">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="13" customHeight="1">
+      <c r="A6" s="17">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="18">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="19">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="13" customHeight="1">
+      <c r="A7" s="17">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="19">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="13" customHeight="1">
+      <c r="A8" s="17">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="18">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s" s="19">
+        <v>31</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="13" customHeight="1">
+      <c r="A9" s="17">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s" s="19">
+        <v>32</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="13" customHeight="1">
+      <c r="A10" s="17">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s" s="19">
+        <v>33</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="13" customHeight="1">
+      <c r="A11" s="17">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s" s="19">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="13" customHeight="1">
+      <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="C2" t="s" s="16">
-        <v>2</v>
+      <c r="B12" t="s" s="18">
+        <v>23</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="13" customHeight="1">
-      <c r="A3" s="18">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s" s="20">
-        <v>26</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="13" customHeight="1">
-      <c r="A4" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="B4" t="s" s="19">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s" s="20">
-        <v>27</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="13" customHeight="1">
-      <c r="A5" s="18">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s" s="19">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="13" customHeight="1">
-      <c r="A6" s="18">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s" s="19">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="13" customHeight="1">
-      <c r="A7" s="18">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s" s="19">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="13" customHeight="1">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="13" customHeight="1">
-      <c r="A9" s="18">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="13" customHeight="1">
-      <c r="A10" s="18">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s" s="19">
-        <v>15</v>
-      </c>
-      <c r="C10" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="13" customHeight="1">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s" s="19">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s" s="20">
-        <v>34</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="13" customHeight="1">
-      <c r="A12" s="18">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s" s="20">
+      <c r="C12" t="s" s="19">
         <v>35</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="13" customHeight="1">
-      <c r="A13" s="18">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="19">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s" s="20">
-        <v>36</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
@@ -16004,352 +15984,350 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="16.3516" style="21" customWidth="1"/>
-    <col min="4" max="4" width="80.3828" style="21" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="21" customWidth="1"/>
+    <col min="1" max="3" width="16.3516" style="20" customWidth="1"/>
+    <col min="4" max="4" width="80.3516" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
-      <c r="A1" t="s" s="13">
-        <v>24</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" ht="13" customHeight="1">
-      <c r="A2" t="s" s="22">
+    <row r="1" ht="13" customHeight="1">
+      <c r="A1" t="s" s="21">
         <v>0</v>
       </c>
-      <c r="B2" t="s" s="15">
+      <c r="B1" t="s" s="14">
         <v>1</v>
+      </c>
+      <c r="C1" t="s" s="22">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s" s="15">
+        <v>2</v>
+      </c>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" ht="28.35" customHeight="1">
+      <c r="A2" s="17">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="18">
+        <v>24</v>
       </c>
       <c r="C2" t="s" s="23">
         <v>37</v>
       </c>
-      <c r="D2" t="s" s="16">
-        <v>2</v>
+      <c r="D2" t="s" s="24">
+        <v>38</v>
       </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" ht="28.35" customHeight="1">
-      <c r="A3" s="18">
+      <c r="E2" s="16"/>
+    </row>
+    <row r="3" ht="41.35" customHeight="1">
+      <c r="A3" s="17">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="19">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s" s="24">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s" s="25">
+      <c r="B3" t="s" s="18">
         <v>39</v>
       </c>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" ht="41.35" customHeight="1">
-      <c r="A4" s="18">
-        <v>10</v>
+      <c r="C3" t="s" s="23">
+        <v>37</v>
       </c>
-      <c r="B4" t="s" s="19">
+      <c r="D3" t="s" s="24">
         <v>40</v>
       </c>
-      <c r="C4" t="s" s="24">
-        <v>38</v>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" ht="28.35" customHeight="1">
+      <c r="A4" s="17">
+        <v>9.5</v>
       </c>
-      <c r="D4" t="s" s="25">
+      <c r="B4" t="s" s="18">
         <v>41</v>
       </c>
-      <c r="E4" s="17"/>
-    </row>
-    <row r="5" ht="28.35" customHeight="1">
-      <c r="A5" s="18">
-        <v>9.5</v>
-      </c>
-      <c r="B5" t="s" s="19">
+      <c r="C4" t="s" s="23">
         <v>42</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" t="s" s="25">
+      <c r="D4" t="s" s="24">
         <v>43</v>
       </c>
-      <c r="E5" s="17"/>
-    </row>
-    <row r="6" ht="54.35" customHeight="1">
-      <c r="A6" s="18">
+      <c r="E4" s="16"/>
+    </row>
+    <row r="5" ht="54.35" customHeight="1">
+      <c r="A5" s="17">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="19">
+      <c r="B5" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="24">
+      <c r="C5" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s" s="24">
+        <v>45</v>
+      </c>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" ht="46" customHeight="1">
+      <c r="A6" s="17">
+        <f>A5-0.5</f>
+        <v>8.5</v>
+      </c>
+      <c r="B6" t="s" s="18">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s" s="23">
         <v>44</v>
       </c>
       <c r="D6" t="s" s="25">
-        <v>45</v>
-      </c>
-      <c r="E6" s="17"/>
-    </row>
-    <row r="7" ht="46" customHeight="1">
-      <c r="A7" s="18">
-        <f>A6-0.5</f>
-        <v>8.5</v>
-      </c>
-      <c r="B7" t="s" s="19">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s" s="24">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s" s="27">
         <v>47</v>
       </c>
-      <c r="E7" s="17"/>
-    </row>
-    <row r="8" ht="46" customHeight="1">
-      <c r="A8" s="18">
-        <f>A7-0.5</f>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" ht="46" customHeight="1">
+      <c r="A7" s="17">
+        <f>A6-0.5</f>
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="19">
+      <c r="B7" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="C8" t="s" s="24">
+      <c r="C7" t="s" s="23">
         <v>48</v>
       </c>
-      <c r="D8" t="s" s="28">
+      <c r="D7" t="s" s="26">
         <v>49</v>
       </c>
-      <c r="E8" s="17"/>
-    </row>
-    <row r="9" ht="38.3" customHeight="1">
-      <c r="A9" s="18">
-        <f>A8-0.5</f>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" ht="38.3" customHeight="1">
+      <c r="A8" s="17">
+        <f>A7-0.5</f>
         <v>7.5</v>
       </c>
-      <c r="B9" t="s" s="19">
+      <c r="B8" t="s" s="18">
         <v>50</v>
       </c>
-      <c r="C9" t="s" s="29">
+      <c r="C8" t="s" s="27">
         <v>51</v>
       </c>
-      <c r="D9" t="s" s="30">
+      <c r="D8" t="s" s="28">
         <v>52</v>
       </c>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" ht="27" customHeight="1">
-      <c r="A10" s="18">
-        <f>A9-0.5</f>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" ht="27" customHeight="1">
+      <c r="A9" s="17">
+        <f>A8-0.5</f>
         <v>7</v>
       </c>
-      <c r="B10" t="s" s="31">
+      <c r="B9" t="s" s="29">
         <v>9</v>
       </c>
-      <c r="C10" t="s" s="32">
+      <c r="C9" t="s" s="30">
         <v>53</v>
       </c>
-      <c r="D10" t="s" s="33">
+      <c r="D9" t="s" s="31">
         <v>54</v>
       </c>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="18">
-        <f>A10-0.5</f>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" s="17">
+        <f>A9-0.5</f>
         <v>6.5</v>
       </c>
-      <c r="B11" t="s" s="19">
+      <c r="B10" t="s" s="18">
         <v>55</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" t="s" s="27">
+      <c r="C10" t="s" s="32">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s" s="25">
         <v>56</v>
       </c>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="18">
-        <f>A11-0.5</f>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" ht="27" customHeight="1">
+      <c r="A11" s="17">
+        <f>A10-0.5</f>
         <v>6</v>
       </c>
-      <c r="B12" t="s" s="31">
+      <c r="B11" t="s" s="29">
         <v>57</v>
       </c>
-      <c r="C12" t="s" s="32">
+      <c r="C11" t="s" s="30">
         <v>58</v>
       </c>
-      <c r="D12" t="s" s="35">
+      <c r="D11" t="s" s="33">
         <v>59</v>
       </c>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="18">
-        <f>A12-0.5</f>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" s="17">
+        <f>A11-0.5</f>
         <v>5.5</v>
       </c>
-      <c r="B13" t="s" s="19">
+      <c r="B12" t="s" s="18">
         <v>60</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" t="s" s="27">
+      <c r="C12" t="s" s="32">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s" s="25">
         <v>61</v>
       </c>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" ht="35.65" customHeight="1">
-      <c r="A14" s="18">
-        <f>A13-0.5</f>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" ht="35.65" customHeight="1">
+      <c r="A13" s="17">
+        <f>A12-0.5</f>
         <v>5</v>
       </c>
-      <c r="B14" t="s" s="31">
+      <c r="B13" t="s" s="29">
         <v>62</v>
       </c>
-      <c r="C14" t="s" s="36">
+      <c r="C13" t="s" s="34">
         <v>63</v>
       </c>
-      <c r="D14" t="s" s="33">
+      <c r="D13" t="s" s="31">
         <v>64</v>
       </c>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" ht="14.65" customHeight="1">
-      <c r="A15" s="18">
-        <f>A14-0.5</f>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" ht="14.65" customHeight="1">
+      <c r="A14" s="17">
+        <f>A13-0.5</f>
         <v>4.5</v>
       </c>
-      <c r="B15" t="s" s="19">
+      <c r="B14" t="s" s="18">
         <v>65</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" t="s" s="27">
+      <c r="C14" t="s" s="35">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s" s="25">
         <v>66</v>
       </c>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" ht="24" customHeight="1">
-      <c r="A16" s="18">
-        <f>A15-0.5</f>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" s="17">
+        <f>A14-0.5</f>
         <v>4</v>
       </c>
-      <c r="B16" t="s" s="19">
+      <c r="B15" t="s" s="18">
         <v>67</v>
       </c>
-      <c r="C16" t="s" s="24">
+      <c r="C15" t="s" s="23">
         <v>68</v>
       </c>
-      <c r="D16" t="s" s="28">
+      <c r="D15" t="s" s="26">
         <v>69</v>
       </c>
-      <c r="E16" s="17"/>
-    </row>
-    <row r="17" ht="14.35" customHeight="1">
-      <c r="A17" s="18">
-        <f>A16-0.5</f>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" ht="14.35" customHeight="1">
+      <c r="A16" s="17">
+        <f>A15-0.5</f>
         <v>3.5</v>
       </c>
-      <c r="B17" t="s" s="19">
+      <c r="B16" t="s" s="18">
         <v>70</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" t="s" s="27">
+      <c r="C16" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s" s="25">
         <v>71</v>
       </c>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" ht="25.95" customHeight="1">
-      <c r="A18" s="18">
-        <f>A17-0.5</f>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" ht="25.95" customHeight="1">
+      <c r="A17" s="17">
+        <f>A16-0.5</f>
         <v>3</v>
       </c>
-      <c r="B18" t="s" s="19">
+      <c r="B17" t="s" s="18">
         <v>72</v>
       </c>
-      <c r="C18" t="s" s="24">
+      <c r="C17" t="s" s="23">
         <v>73</v>
       </c>
-      <c r="D18" t="s" s="30">
+      <c r="D17" t="s" s="28">
         <v>74</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="14.35" customHeight="1">
-      <c r="A19" s="18">
-        <f>A18-0.5</f>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" ht="14.35" customHeight="1">
+      <c r="A18" s="17">
+        <f>A17-0.5</f>
         <v>2.5</v>
       </c>
-      <c r="B19" t="s" s="19">
+      <c r="B18" t="s" s="18">
         <v>75</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" t="s" s="27">
+      <c r="C18" t="s" s="23">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s" s="25">
         <v>76</v>
       </c>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="35" customHeight="1">
-      <c r="A20" s="18">
-        <f>A19-0.5</f>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" ht="35" customHeight="1">
+      <c r="A19" s="17">
+        <f>A18-0.5</f>
         <v>2</v>
       </c>
-      <c r="B20" t="s" s="19">
+      <c r="B19" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="C20" t="s" s="24">
+      <c r="C19" t="s" s="23">
         <v>77</v>
       </c>
-      <c r="D20" t="s" s="28">
+      <c r="D19" t="s" s="26">
         <v>78</v>
       </c>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="46" customHeight="1">
-      <c r="A21" s="18">
-        <f>A20-0.5</f>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" ht="46" customHeight="1">
+      <c r="A20" s="17">
+        <f>A19-0.5</f>
         <v>1.5</v>
       </c>
-      <c r="B21" t="s" s="19">
+      <c r="B20" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="C21" t="s" s="24">
+      <c r="C20" t="s" s="23">
         <v>77</v>
       </c>
-      <c r="D21" t="s" s="28">
+      <c r="D20" t="s" s="26">
         <v>79</v>
       </c>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="35" customHeight="1">
-      <c r="A22" s="18">
-        <f>A21-0.5</f>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" ht="35" customHeight="1">
+      <c r="A21" s="17">
+        <f>A20-0.5</f>
         <v>1</v>
       </c>
-      <c r="B22" t="s" s="19">
+      <c r="B21" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="C22" t="s" s="24">
+      <c r="C21" t="s" s="23">
         <v>80</v>
       </c>
-      <c r="D22" t="s" s="28">
+      <c r="D21" t="s" s="26">
         <v>81</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
